--- a/dummy_nursinghome.xlsx
+++ b/dummy_nursinghome.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jupton\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -821,7 +819,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,7 +854,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1033,7 +1031,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1043,37 +1041,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="16" width="19.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1"/>
-    <col min="20" max="21" width="19.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="1" customWidth="1"/>
-    <col min="26" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="69.85546875" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" style="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" customWidth="1"/>
+    <col min="14" max="16" width="19.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" customWidth="1"/>
+    <col min="20" max="21" width="19.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" customWidth="1"/>
+    <col min="24" max="24" width="12.83203125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" style="1" customWidth="1"/>
+    <col min="26" max="28" width="8.83203125" style="1"/>
+    <col min="29" max="29" width="69.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1162,36 +1160,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="J2" s="1">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
@@ -1200,385 +1198,385 @@
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="R2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="X2" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
         <f>X2-1</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <f>X2</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1">
         <f>Z2-1</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="1">
         <f>AA2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="J3" s="1">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="R3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="X3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y26" si="0">X3-1</f>
-        <v>3</v>
+        <f>X3-1</f>
+        <v>4</v>
       </c>
       <c r="Z3" s="1">
-        <f t="shared" ref="Z3:Z26" si="1">X3</f>
-        <v>4</v>
+        <f>X3</f>
+        <v>5</v>
       </c>
       <c r="AA3" s="1">
-        <f t="shared" ref="AA3:AA26" si="2">Z3-1</f>
-        <v>3</v>
+        <f>Z3-1</f>
+        <v>4</v>
       </c>
       <c r="AB3" s="1">
-        <f t="shared" ref="AB3:AB26" si="3">AA3</f>
-        <v>3</v>
+        <f>AA3</f>
+        <v>4</v>
       </c>
       <c r="AC3" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="J4" s="1">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="R4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="X4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>X4-1</f>
+        <v>2</v>
       </c>
       <c r="Z4" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>X4</f>
+        <v>3</v>
       </c>
       <c r="AA4" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>Z4-1</f>
+        <v>2</v>
       </c>
       <c r="AB4" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>AA4</f>
+        <v>2</v>
       </c>
       <c r="AC4" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="J5" s="1">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>X5-1</f>
+        <v>3</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>X5</f>
+        <v>4</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>Z5-1</f>
+        <v>3</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>AA5</f>
+        <v>3</v>
       </c>
       <c r="AC5" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>19</v>
@@ -1587,16 +1585,16 @@
         <v>19</v>
       </c>
       <c r="R6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>19</v>
@@ -1605,151 +1603,151 @@
         <v>19</v>
       </c>
       <c r="X6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>X6-1</f>
+        <v>3</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>X6</f>
+        <v>4</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>Z6-1</f>
+        <v>3</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>AA6</f>
+        <v>3</v>
       </c>
       <c r="AC6" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="R7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="W7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="X7" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>X7-1</f>
+        <v>2</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>X7</f>
+        <v>3</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>Z7-1</f>
+        <v>2</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>AA7</f>
+        <v>2</v>
       </c>
       <c r="AC7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J8" s="1">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>17</v>
@@ -1758,76 +1756,76 @@
         <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="R8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W8" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="X8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>X8-1</f>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>X8</f>
+        <v>1</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>Z8-1</f>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>AA8</f>
+        <v>0</v>
       </c>
       <c r="AC8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -1836,13 +1834,13 @@
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="J9" s="1">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>17</v>
@@ -1851,184 +1849,184 @@
         <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W9" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="X9" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>X9-1</f>
+        <v>4</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>X9</f>
+        <v>5</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>Z9-1</f>
+        <v>4</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>AA9</f>
+        <v>4</v>
       </c>
       <c r="AC9" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="J10" s="1">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="R10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="X10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>X10-1</f>
+        <v>3</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>X10</f>
+        <v>4</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>Z10-1</f>
+        <v>3</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>AA10</f>
+        <v>3</v>
       </c>
       <c r="AC10" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="J11" s="1">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>16</v>
@@ -2043,13 +2041,13 @@
         <v>43</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="R11" s="1">
         <v>1</v>
@@ -2061,82 +2059,82 @@
         <v>43</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="W11" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="X11" s="2">
         <v>1</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="0"/>
+        <f>X11-1</f>
         <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="1"/>
+        <f>X11</f>
         <v>1</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="2"/>
+        <f>Z11-1</f>
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="3"/>
+        <f>AA11</f>
         <v>0</v>
       </c>
       <c r="AC11" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
         <v>31</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>19</v>
@@ -2145,16 +2143,16 @@
         <v>19</v>
       </c>
       <c r="R12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>19</v>
@@ -2163,58 +2161,58 @@
         <v>19</v>
       </c>
       <c r="X12" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>X12-1</f>
+        <v>4</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>X12</f>
+        <v>5</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>Z12-1</f>
+        <v>4</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>AA12</f>
+        <v>4</v>
       </c>
       <c r="AC12" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>17</v>
@@ -2223,91 +2221,91 @@
         <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="1">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
-      <c r="S13" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="U13" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W13" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="X13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>X13-1</f>
+        <v>2</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>X13</f>
+        <v>3</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>Z13-1</f>
+        <v>2</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>AA13</f>
+        <v>2</v>
       </c>
       <c r="AC13" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>17</v>
@@ -2316,76 +2314,76 @@
         <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="R14" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="X14" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>X14-1</f>
+        <v>3</v>
       </c>
       <c r="Z14" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>X14</f>
+        <v>4</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>Z14-1</f>
+        <v>3</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>AA14</f>
+        <v>3</v>
       </c>
       <c r="AC14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>57</v>
@@ -2394,13 +2392,13 @@
         <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="J15" s="1">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>17</v>
@@ -2412,7 +2410,7 @@
         <v>19</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>19</v>
@@ -2430,7 +2428,7 @@
         <v>19</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>19</v>
@@ -2445,148 +2443,148 @@
         <v>4</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" si="0"/>
+        <f>X15-1</f>
         <v>3</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" si="1"/>
+        <f>X15</f>
         <v>4</v>
       </c>
       <c r="AA15" s="1">
-        <f t="shared" si="2"/>
+        <f>Z15-1</f>
         <v>3</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="3"/>
+        <f>AA15</f>
         <v>3</v>
       </c>
       <c r="AC15" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="J16" s="1">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L16" t="s">
         <v>31</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Q16" t="s">
         <v>32</v>
       </c>
       <c r="R16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="W16" t="s">
         <v>32</v>
       </c>
       <c r="X16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>X16-1</f>
+        <v>3</v>
       </c>
       <c r="Z16" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>X16</f>
+        <v>4</v>
       </c>
       <c r="AA16" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>Z16-1</f>
+        <v>3</v>
       </c>
       <c r="AB16" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>AA16</f>
+        <v>3</v>
       </c>
       <c r="AC16" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="J17" s="1">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>16</v>
@@ -2595,262 +2593,262 @@
         <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="R17" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="X17" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>X17-1</f>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>X17</f>
+        <v>1</v>
       </c>
       <c r="AA17" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>Z17-1</f>
+        <v>0</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>AA17</f>
+        <v>0</v>
       </c>
       <c r="AC17" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="J18" s="1">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Q18" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="R18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="W18" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="X18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>X18-1</f>
+        <v>3</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>X18</f>
+        <v>4</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>Z18-1</f>
+        <v>3</v>
       </c>
       <c r="AB18" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>AA18</f>
+        <v>3</v>
       </c>
       <c r="AC18" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H19" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="J19" s="1">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Q19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="R19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="W19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="X19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>X19-1</f>
+        <v>4</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>X19</f>
+        <v>5</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>Z19-1</f>
+        <v>4</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>AA19</f>
+        <v>4</v>
       </c>
       <c r="AC19" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>66</v>
@@ -2859,13 +2857,13 @@
         <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J20" s="1">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>16</v>
@@ -2874,262 +2872,262 @@
         <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="P20" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="1">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R20" s="1">
-        <v>1</v>
-      </c>
-      <c r="S20" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="V20" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="W20" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="X20" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>X20-1</f>
+        <v>4</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>X20</f>
+        <v>5</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>Z20-1</f>
+        <v>4</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>AA20</f>
+        <v>4</v>
       </c>
       <c r="AC20" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="J21" s="1">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
         <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>X21-1</f>
+        <v>3</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>X21</f>
+        <v>4</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>Z21-1</f>
+        <v>3</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>AA21</f>
+        <v>3</v>
       </c>
       <c r="AC21" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="J22" s="1">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q22" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="R22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="W22" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="X22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>X22-1</f>
+        <v>2</v>
       </c>
       <c r="Z22" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>X22</f>
+        <v>3</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>Z22-1</f>
+        <v>2</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>AA22</f>
+        <v>2</v>
       </c>
       <c r="AC22" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>66</v>
@@ -3138,28 +3136,28 @@
         <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="J23" s="1">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
         <v>18</v>
       </c>
       <c r="M23" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>19</v>
@@ -3168,16 +3166,16 @@
         <v>32</v>
       </c>
       <c r="R23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S23" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>19</v>
@@ -3186,58 +3184,58 @@
         <v>32</v>
       </c>
       <c r="X23" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>X23-1</f>
+        <v>4</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>X23</f>
+        <v>5</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>Z23-1</f>
+        <v>4</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>AA23</f>
+        <v>4</v>
       </c>
       <c r="AC23" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="J24" s="1">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>16</v>
@@ -3246,155 +3244,155 @@
         <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>70</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="Q24" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="R24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>70</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="W24" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="X24" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>X24-1</f>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>X24</f>
+        <v>1</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>Z24-1</f>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>AA24</f>
+        <v>0</v>
       </c>
       <c r="AC24" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="J25" s="1">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L25" t="s">
         <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="P25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="1">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q25" t="s">
-        <v>70</v>
-      </c>
-      <c r="R25" s="1">
-        <v>1</v>
-      </c>
-      <c r="S25" t="s">
-        <v>43</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="U25" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="W25" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="X25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>X25-1</f>
+        <v>2</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>X25</f>
+        <v>3</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>Z25-1</f>
+        <v>2</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>AA25</f>
+        <v>2</v>
       </c>
       <c r="AC25" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -3468,19 +3466,19 @@
         <v>5</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" si="0"/>
+        <f>X26-1</f>
         <v>4</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" si="1"/>
+        <f>X26</f>
         <v>5</v>
       </c>
       <c r="AA26" s="1">
-        <f t="shared" si="2"/>
+        <f>Z26-1</f>
         <v>4</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" si="3"/>
+        <f>AA26</f>
         <v>4</v>
       </c>
       <c r="AC26" t="s">
@@ -3488,6 +3486,14 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:AC26">
+    <sortCondition ref="F1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>